--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1393055.692673758</v>
+        <v>1378127.025871272</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2357862.325109815</v>
+        <v>2357862.325109813</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>46.53270054897215</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>318.0028282768178</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>380.3900375873318</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>5.735920110877182</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>99.66075074687603</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>205.1478855987998</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>59.68935914213988</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>139.6528551206851</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>319.5194584381686</v>
       </c>
       <c r="I11" t="n">
-        <v>135.355334254344</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.4700106751468</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.6180294004011</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.5661762382495</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>76.83130074492665</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>311.7423175044482</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>102.1665731007175</v>
       </c>
       <c r="I12" t="n">
-        <v>53.50170169071343</v>
+        <v>53.50170169071347</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.42807039329375</v>
+        <v>35.42807039329384</v>
       </c>
       <c r="S12" t="n">
         <v>152.3181986878415</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>137.9932954615216</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>208.7844338901269</v>
       </c>
       <c r="T13" t="n">
-        <v>224.2110473578499</v>
+        <v>78.4522736287911</v>
       </c>
       <c r="U13" t="n">
-        <v>254.6569284845851</v>
+        <v>286.2713543513365</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>314.7733662305922</v>
+        <v>41.96660387491418</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,10 +1660,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>191.442026261026</v>
       </c>
       <c r="U16" t="n">
-        <v>225.5650375952951</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>108.11590430964</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>156.8403846473911</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>95.10391318383975</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
         <v>223.3729047207587</v>
@@ -2061,16 +2061,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>9.579478589972711</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>48.60112920903759</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>213.918963367548</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958666</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183508</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>225.5650375952957</v>
+        <v>225.5650375952956</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.90088782653663</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.797245289947494</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.8064980825065</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2971849712678</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>154.0396490812603</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>75.81777452536997</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>33.35146980185858</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>41.88171928086628</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>147.3604984678192</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.683675137274</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1743.361901372331</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1743.361901372331</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1357.573648774087</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>946.5877439844796</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>528.6239358826665</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.283515201396</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714565</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1562.144220371538</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1176.355967773294</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>765.3700629836867</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533136</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4603,16 +4603,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2360.292344976796</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1986.826586715716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1596.687254739904</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4673,16 +4673,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2405.650631901128</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2074.587744557557</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1721.819089287443</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1721.819089287443</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2464.883814302573</v>
+        <v>1969.89555584295</v>
       </c>
       <c r="C11" t="n">
-        <v>2095.921297362162</v>
+        <v>1600.933038902538</v>
       </c>
       <c r="D11" t="n">
-        <v>1737.655598755411</v>
+        <v>1600.933038902538</v>
       </c>
       <c r="E11" t="n">
-        <v>1351.867346157167</v>
+        <v>1215.144786304294</v>
       </c>
       <c r="F11" t="n">
-        <v>940.8814413675591</v>
+        <v>804.1588815146865</v>
       </c>
       <c r="G11" t="n">
-        <v>523.3519349621869</v>
+        <v>386.6293751093142</v>
       </c>
       <c r="H11" t="n">
-        <v>200.6050072468651</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="I11" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="J11" t="n">
-        <v>215.7775870444377</v>
+        <v>215.7775870444372</v>
       </c>
       <c r="K11" t="n">
-        <v>564.1738308751492</v>
+        <v>564.173830875148</v>
       </c>
       <c r="L11" t="n">
-        <v>1048.666806192615</v>
+        <v>1048.666806192614</v>
       </c>
       <c r="M11" t="n">
-        <v>1604.3651385085</v>
+        <v>1604.365138508499</v>
       </c>
       <c r="N11" t="n">
-        <v>2154.423253260163</v>
+        <v>2154.423253260161</v>
       </c>
       <c r="O11" t="n">
-        <v>2628.639895377755</v>
+        <v>2628.639895377753</v>
       </c>
       <c r="P11" t="n">
-        <v>2995.698445127816</v>
+        <v>2995.698445127813</v>
       </c>
       <c r="Q11" t="n">
-        <v>3194.122369699619</v>
+        <v>3194.122369699616</v>
       </c>
       <c r="R11" t="n">
-        <v>3166.374884169168</v>
+        <v>3194.122369699616</v>
       </c>
       <c r="S11" t="n">
-        <v>3166.374884169168</v>
+        <v>3027.841531921433</v>
       </c>
       <c r="T11" t="n">
-        <v>3166.374884169168</v>
+        <v>2811.108020569666</v>
       </c>
       <c r="U11" t="n">
-        <v>3166.374884169168</v>
+        <v>2733.500646079841</v>
       </c>
       <c r="V11" t="n">
-        <v>3166.374884169168</v>
+        <v>2733.500646079841</v>
       </c>
       <c r="W11" t="n">
-        <v>3166.374884169168</v>
+        <v>2733.500646079841</v>
       </c>
       <c r="X11" t="n">
-        <v>3166.374884169168</v>
+        <v>2360.034887818761</v>
       </c>
       <c r="Y11" t="n">
-        <v>2851.483654366695</v>
+        <v>1969.89555584295</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>221.1231290014984</v>
       </c>
       <c r="H12" t="n">
-        <v>117.924570313905</v>
+        <v>117.9245703139049</v>
       </c>
       <c r="I12" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="J12" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="K12" t="n">
-        <v>319.966484342508</v>
+        <v>355.9060257624177</v>
       </c>
       <c r="L12" t="n">
-        <v>406.9006778431624</v>
+        <v>809.9721611134964</v>
       </c>
       <c r="M12" t="n">
-        <v>988.7536625221885</v>
+        <v>988.7536625221896</v>
       </c>
       <c r="N12" t="n">
-        <v>1601.713577735534</v>
+        <v>1601.713577735535</v>
       </c>
       <c r="O12" t="n">
         <v>2096.036470465081</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="C13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="D13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="E13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="F13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="G13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="H13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="I13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="J13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="K13" t="n">
-        <v>142.3679338555476</v>
+        <v>142.3679338555474</v>
       </c>
       <c r="L13" t="n">
-        <v>298.328769522068</v>
+        <v>298.3287695220677</v>
       </c>
       <c r="M13" t="n">
-        <v>473.1567265041774</v>
+        <v>473.1567265041768</v>
       </c>
       <c r="N13" t="n">
-        <v>649.2622818508028</v>
+        <v>649.2622818508021</v>
       </c>
       <c r="O13" t="n">
-        <v>795.9079702090198</v>
+        <v>795.9079702090189</v>
       </c>
       <c r="P13" t="n">
-        <v>897.868008196097</v>
+        <v>897.868008196096</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.868008196097</v>
+        <v>897.868008196096</v>
       </c>
       <c r="R13" t="n">
-        <v>758.4808410632469</v>
+        <v>897.868008196096</v>
       </c>
       <c r="S13" t="n">
-        <v>547.5874734974622</v>
+        <v>686.9746406303111</v>
       </c>
       <c r="T13" t="n">
-        <v>321.1116680854925</v>
+        <v>607.7299197931484</v>
       </c>
       <c r="U13" t="n">
-        <v>63.88244739399239</v>
+        <v>318.5669355998792</v>
       </c>
       <c r="V13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="W13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="X13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
       <c r="Y13" t="n">
-        <v>63.88244739399239</v>
+        <v>63.88244739399233</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1240.846680926024</v>
+        <v>1709.338245913162</v>
       </c>
       <c r="C14" t="n">
-        <v>922.8937857436079</v>
+        <v>1666.947736948603</v>
       </c>
       <c r="D14" t="n">
-        <v>922.8937857436079</v>
+        <v>1308.682038341852</v>
       </c>
       <c r="E14" t="n">
         <v>922.8937857436079</v>
@@ -5275,55 +5275,55 @@
         <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403568</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604022</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N14" t="n">
         <v>2477.93754444976</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216838</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.37471882786</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095572</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="U14" t="n">
-        <v>3074.883153840723</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497152</v>
+        <v>3212.31183148429</v>
       </c>
       <c r="W14" t="n">
-        <v>2391.051611227037</v>
+        <v>2859.543176214176</v>
       </c>
       <c r="X14" t="n">
-        <v>2017.585852965958</v>
+        <v>2486.077417953096</v>
       </c>
       <c r="Y14" t="n">
-        <v>1627.446520990146</v>
+        <v>2095.938085977284</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
         <v>220.8126299914996</v>
@@ -5354,28 +5354,28 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K15" t="n">
-        <v>157.3616934996454</v>
+        <v>403.4201994324305</v>
       </c>
       <c r="L15" t="n">
-        <v>661.7232333657639</v>
+        <v>907.7817392985492</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.268582832869</v>
+        <v>1548.327088765654</v>
       </c>
       <c r="N15" t="n">
-        <v>1975.474275085651</v>
+        <v>1746.983830418319</v>
       </c>
       <c r="O15" t="n">
-        <v>2524.910283838374</v>
+        <v>2296.419839171042</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q15" t="n">
         <v>2656.33685256765</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K16" t="n">
         <v>175.0397247222305</v>
@@ -5466,10 +5466,10 @@
         <v>1073.926476585965</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.926476585965</v>
+        <v>880.550692483919</v>
       </c>
       <c r="U16" t="n">
-        <v>846.0830042674855</v>
+        <v>591.3985160615987</v>
       </c>
       <c r="V16" t="n">
         <v>591.3985160615987</v>
@@ -5478,10 +5478,10 @@
         <v>301.981346024638</v>
       </c>
       <c r="X16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="17">
@@ -5491,58 +5491,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2333.305065052698</v>
+        <v>1397.061718429197</v>
       </c>
       <c r="C17" t="n">
-        <v>1964.342548112286</v>
+        <v>1397.061718429197</v>
       </c>
       <c r="D17" t="n">
-        <v>1606.076849505535</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.288596907291</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="F17" t="n">
-        <v>809.3026921176836</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G17" t="n">
-        <v>392.2149103541111</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403566</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604017</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389912</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449759</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O17" t="n">
         <v>3025.098749216837</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T17" t="n">
         <v>3484.789894598744</v>
@@ -5551,16 +5551,16 @@
         <v>3231.098191343895</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.673560386934</v>
+        <v>2900.035304000324</v>
       </c>
       <c r="W17" t="n">
-        <v>2719.904905116819</v>
+        <v>2547.26664873021</v>
       </c>
       <c r="X17" t="n">
-        <v>2719.904905116819</v>
+        <v>2173.80089046913</v>
       </c>
       <c r="Y17" t="n">
-        <v>2719.904905116819</v>
+        <v>1783.661558493318</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J18" t="n">
         <v>192.6510469835163</v>
       </c>
       <c r="K18" t="n">
-        <v>260.2588666468733</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L18" t="n">
-        <v>764.6204065129918</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M18" t="n">
-        <v>1405.165755980096</v>
+        <v>1205.93832751005</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.497760227161</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O18" t="n">
-        <v>2316.933768979884</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P18" t="n">
         <v>2425.623396507182</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222304</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669898</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q19" t="n">
         <v>1073.926476585965</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585965</v>
+        <v>977.8619178144102</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585965</v>
+        <v>770.4216330668156</v>
       </c>
       <c r="T19" t="n">
-        <v>848.2972798983302</v>
+        <v>544.7924363791806</v>
       </c>
       <c r="U19" t="n">
-        <v>559.14510347601</v>
+        <v>255.6402599568603</v>
       </c>
       <c r="V19" t="n">
-        <v>304.4606152701232</v>
+        <v>255.6402599568603</v>
       </c>
       <c r="W19" t="n">
-        <v>304.4606152701232</v>
+        <v>255.6402599568603</v>
       </c>
       <c r="X19" t="n">
-        <v>294.7843742701507</v>
+        <v>255.6402599568603</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.99179512662064</v>
+        <v>255.6402599568603</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2333.305065052698</v>
+        <v>1825.601271524444</v>
       </c>
       <c r="C20" t="n">
-        <v>1964.342548112286</v>
+        <v>1456.638754584033</v>
       </c>
       <c r="D20" t="n">
-        <v>1606.076849505535</v>
+        <v>1456.638754584033</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.288596907291</v>
+        <v>1070.850501985788</v>
       </c>
       <c r="F20" t="n">
-        <v>809.3026921176836</v>
+        <v>659.864597196181</v>
       </c>
       <c r="G20" t="n">
-        <v>392.2149103541111</v>
+        <v>242.7768154326084</v>
       </c>
       <c r="H20" t="n">
-        <v>73.99179512662064</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J20" t="n">
         <v>262.631694140357</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160402</v>
+        <v>666.0988071604027</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N20" t="n">
         <v>2477.93754444976</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216838</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331032</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331032</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331032</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="V20" t="n">
-        <v>3699.589756331032</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="W20" t="n">
-        <v>3483.509995353711</v>
+        <v>2975.806201825458</v>
       </c>
       <c r="X20" t="n">
-        <v>3110.044237092631</v>
+        <v>2602.340443564378</v>
       </c>
       <c r="Y20" t="n">
-        <v>2719.904905116819</v>
+        <v>2212.201111588566</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
         <v>220.8126299914996</v>
@@ -5828,19 +5828,19 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662064</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K21" t="n">
-        <v>403.4201994324305</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L21" t="n">
-        <v>540.6497974481244</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M21" t="n">
-        <v>1181.195146915229</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N21" t="n">
         <v>1452.219619273623</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K22" t="n">
-        <v>2800.703004467297</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L22" t="n">
-        <v>2985.535999368115</v>
+        <v>359.872719623049</v>
       </c>
       <c r="M22" t="n">
-        <v>3190.805600087353</v>
+        <v>565.1423203422869</v>
       </c>
       <c r="N22" t="n">
-        <v>3396.628964923458</v>
+        <v>770.9656851783913</v>
       </c>
       <c r="O22" t="n">
-        <v>3570.723860312057</v>
+        <v>945.0605805669902</v>
       </c>
       <c r="P22" t="n">
-        <v>3696.171436910673</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q22" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="R22" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="S22" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="T22" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="U22" t="n">
-        <v>3471.746284012552</v>
+        <v>846.0830042674855</v>
       </c>
       <c r="V22" t="n">
-        <v>3217.061795806665</v>
+        <v>591.3985160615987</v>
       </c>
       <c r="W22" t="n">
-        <v>2927.644625769704</v>
+        <v>301.981346024638</v>
       </c>
       <c r="X22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="Y22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L24" t="n">
-        <v>638.3691419079765</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6183,16 +6183,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.787631771461</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.787631771461</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.787631771461</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,13 +6247,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2302.237516093321</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>418.0853130833037</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C28" t="n">
-        <v>249.1491301553968</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D28" t="n">
-        <v>99.03249074306109</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570736</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>820.5263570570736</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>820.5263570570736</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y28" t="n">
-        <v>599.7337779135435</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4479.286098099606</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>4310.349915171699</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>4160.233275759363</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>4012.32018217697</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4660.934562929845</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4660.934562929845</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>4660.934562929845</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>4660.934562929845</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y31" t="n">
-        <v>4660.934562929845</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765184</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706316</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>978.2031513914707</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>809.2669684635638</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>659.150329051228</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>511.2372354688349</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>364.3472879709245</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1159.85161622171</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>1159.85161622171</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954965</v>
+        <v>488.8659712700625</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954965</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954965</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954965</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954965</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7362,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954965</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954965</v>
+        <v>670.5144361003022</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,34 +7423,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,19 +7487,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>289.9398668627125</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123425</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123425</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123425</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.78763177146</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344997</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>692.3809108364824</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>471.5883316929522</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1009.579090436494</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473454</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473454</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1298.996260473454</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1009.579090436494</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>1009.579090436494</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>1009.579090436494</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>28.339192000084</v>
+        <v>28.33919200008413</v>
       </c>
       <c r="K12" t="n">
-        <v>228.1626699217605</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>58.56215135572455</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9008,7 +9008,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>15.92129162592695</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>20.72114122105256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>165.328548075151</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263459</v>
       </c>
       <c r="N21" t="n">
-        <v>73.09871788457482</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9719,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L24" t="n">
-        <v>104.874910276575</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>135.3553342543441</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.47001067514695</v>
       </c>
       <c r="S11" t="n">
-        <v>164.618029400401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.5661762382495</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1897708139312</v>
+        <v>174.3584700690045</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>74.49562115160541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23439,7 +23439,7 @@
         <v>129.165655418774</v>
       </c>
       <c r="J13" t="n">
-        <v>31.56442760231896</v>
+        <v>31.56442760231904</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.97296450542808</v>
+        <v>12.97296450542818</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>137.9932954615216</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>145.7587737290588</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61442586675136</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>50.49952554041539</v>
+        <v>323.3062878960934</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>31.93087845973267</v>
       </c>
       <c r="U16" t="n">
-        <v>60.69561706280186</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>246.5671373110429</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
         <v>118.4960408938903</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>170.9118738227438</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23913,7 +23913,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677913</v>
+        <v>34.06926848395156</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>216.1301767990644</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>266.439754866178</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.1547862223006</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>135.322005349865</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176897</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>60.69561706280132</v>
+        <v>60.69561706280143</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.9310923554007</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>144.6367173566217</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>27.33984058837405</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>23.61454994042478</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2258133653232</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>12.45391938211728</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>91.42904657325786</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.06777566241341</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>125.3651018177616</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>19.88632263080862</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>769908.2588320348</v>
+        <v>769908.2588320344</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26331,31 +26331,31 @@
         <v>388396.004047322</v>
       </c>
       <c r="H2" t="n">
-        <v>388396.0040473219</v>
+        <v>388396.004047322</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="M2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="N2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983655</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123022.0575261863</v>
+        <v>123022.0575261856</v>
       </c>
       <c r="F3" t="n">
-        <v>122192.1638359353</v>
+        <v>122192.163835936</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30961.93223512972</v>
+        <v>30961.93223512951</v>
       </c>
       <c r="N3" t="n">
-        <v>30950.65265136801</v>
+        <v>30950.65265136828</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>59117.03032849782</v>
+        <v>59117.03032849776</v>
       </c>
       <c r="F5" t="n">
         <v>69171.54328360151</v>
@@ -26487,31 +26487,31 @@
         <v>69171.54328360151</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360151</v>
+        <v>69171.54328360152</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>143712.4151947324</v>
+        <v>138848.3064072309</v>
       </c>
       <c r="F6" t="n">
-        <v>164257.7578213991</v>
+        <v>160618.4963594574</v>
       </c>
       <c r="G6" t="n">
-        <v>286449.9216573343</v>
+        <v>282810.6601953934</v>
       </c>
       <c r="H6" t="n">
-        <v>286449.9216573342</v>
+        <v>282810.6601953934</v>
       </c>
       <c r="I6" t="n">
-        <v>72860.38759824858</v>
+        <v>71885.79633852691</v>
       </c>
       <c r="J6" t="n">
-        <v>151969.328004753</v>
+        <v>150994.7367450317</v>
       </c>
       <c r="K6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="L6" t="n">
-        <v>328392.5471973464</v>
+        <v>327417.9559376248</v>
       </c>
       <c r="M6" t="n">
-        <v>297430.6149622165</v>
+        <v>296456.023702495</v>
       </c>
       <c r="N6" t="n">
-        <v>297441.8945459782</v>
+        <v>296467.3032862565</v>
       </c>
       <c r="O6" t="n">
-        <v>328392.5471973462</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="P6" t="n">
-        <v>328392.5471973462</v>
+        <v>327417.9559376247</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>484.6958857368629</v>
+        <v>484.6958857368623</v>
       </c>
       <c r="F3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="G3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="H3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380652</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>798.5305924249049</v>
+        <v>798.5305924249041</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.9522215197762</v>
+        <v>106.9522215197757</v>
       </c>
       <c r="F3" t="n">
-        <v>108.7802146012021</v>
+        <v>108.7802146012028</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160352</v>
+        <v>236.9063051160351</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>124.2433196703493</v>
+        <v>124.2433196703484</v>
       </c>
       <c r="F4" t="n">
-        <v>126.3668466578532</v>
+        <v>126.3668466578542</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708148</v>
+        <v>290.3162041708151</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703493</v>
+        <v>124.2433196703484</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3668466578532</v>
+        <v>126.3668466578543</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703493</v>
+        <v>124.2433196703484</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3668466578532</v>
+        <v>126.3668466578542</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>318.7401912220354</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>5.919944487539397</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>33.3941324334632</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>343.5050486065358</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27827,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>125.3743547112082</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>20.56176979023732</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>245.24077931697</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>191.5348083661494</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>112.4847882031429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.948526173816533</v>
+        <v>1.94852617381653</v>
       </c>
       <c r="H11" t="n">
-        <v>19.95534367759857</v>
+        <v>19.95534367759855</v>
       </c>
       <c r="I11" t="n">
-        <v>75.12055531606195</v>
+        <v>75.12055531606185</v>
       </c>
       <c r="J11" t="n">
-        <v>165.3787233449611</v>
+        <v>165.3787233449609</v>
       </c>
       <c r="K11" t="n">
-        <v>247.859836282615</v>
+        <v>247.8598362826147</v>
       </c>
       <c r="L11" t="n">
-        <v>307.4920441745528</v>
+        <v>307.4920441745524</v>
       </c>
       <c r="M11" t="n">
-        <v>342.1441465181625</v>
+        <v>342.1441465181621</v>
       </c>
       <c r="N11" t="n">
-        <v>347.6803965095188</v>
+        <v>347.6803965095183</v>
       </c>
       <c r="O11" t="n">
-        <v>328.3047393686306</v>
+        <v>328.3047393686302</v>
       </c>
       <c r="P11" t="n">
-        <v>280.2004994525349</v>
+        <v>280.2004994525345</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.4189058527303</v>
+        <v>210.41890585273</v>
       </c>
       <c r="R11" t="n">
-        <v>122.3991072660029</v>
+        <v>122.3991072660027</v>
       </c>
       <c r="S11" t="n">
-        <v>44.40204018584429</v>
+        <v>44.40204018584423</v>
       </c>
       <c r="T11" t="n">
-        <v>8.529673325881877</v>
+        <v>8.529673325881866</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1558820939053226</v>
+        <v>0.1558820939053224</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.042553414603818</v>
+        <v>1.042553414603817</v>
       </c>
       <c r="H12" t="n">
-        <v>10.06887113577898</v>
+        <v>10.06887113577897</v>
       </c>
       <c r="I12" t="n">
-        <v>35.89493116070165</v>
+        <v>35.8949311607016</v>
       </c>
       <c r="J12" t="n">
-        <v>98.4984346665827</v>
+        <v>98.49843466658257</v>
       </c>
       <c r="K12" t="n">
-        <v>168.3495134450385</v>
+        <v>168.3495134450383</v>
       </c>
       <c r="L12" t="n">
-        <v>226.3666964472019</v>
+        <v>226.3666964472016</v>
       </c>
       <c r="M12" t="n">
-        <v>264.1592577265903</v>
+        <v>264.1592577265899</v>
       </c>
       <c r="N12" t="n">
-        <v>271.1507672482098</v>
+        <v>271.1507672482094</v>
       </c>
       <c r="O12" t="n">
-        <v>248.0499784298831</v>
+        <v>248.0499784298827</v>
       </c>
       <c r="P12" t="n">
-        <v>199.081976162373</v>
+        <v>199.0819761623728</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.0810288536383</v>
+        <v>133.0810288536381</v>
       </c>
       <c r="R12" t="n">
-        <v>64.72976375934938</v>
+        <v>64.7297637593493</v>
       </c>
       <c r="S12" t="n">
-        <v>19.36497241599635</v>
+        <v>19.36497241599633</v>
       </c>
       <c r="T12" t="n">
-        <v>4.202221877284687</v>
+        <v>4.202221877284682</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06858904043446176</v>
+        <v>0.06858904043446168</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8740417611648347</v>
+        <v>0.8740417611648336</v>
       </c>
       <c r="H13" t="n">
-        <v>7.771025840174627</v>
+        <v>7.771025840174617</v>
       </c>
       <c r="I13" t="n">
-        <v>26.28481950848431</v>
+        <v>26.28481950848428</v>
       </c>
       <c r="J13" t="n">
-        <v>61.79475251435381</v>
+        <v>61.79475251435373</v>
       </c>
       <c r="K13" t="n">
-        <v>101.547760978969</v>
+        <v>101.5477609789688</v>
       </c>
       <c r="L13" t="n">
-        <v>129.9461723826337</v>
+        <v>129.9461723826335</v>
       </c>
       <c r="M13" t="n">
-        <v>137.010018979684</v>
+        <v>137.0100189796838</v>
       </c>
       <c r="N13" t="n">
-        <v>133.752226960797</v>
+        <v>133.7522269607969</v>
       </c>
       <c r="O13" t="n">
-        <v>123.5418300235532</v>
+        <v>123.5418300235531</v>
       </c>
       <c r="P13" t="n">
-        <v>105.7113780957905</v>
+        <v>105.7113780957904</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.1890787462663</v>
+        <v>73.1890787462662</v>
       </c>
       <c r="R13" t="n">
-        <v>39.30009591564792</v>
+        <v>39.30009591564787</v>
       </c>
       <c r="S13" t="n">
-        <v>15.23216414684534</v>
+        <v>15.23216414684532</v>
       </c>
       <c r="T13" t="n">
-        <v>3.734542070431565</v>
+        <v>3.73454207043156</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04767500515444558</v>
+        <v>0.04767500515444552</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J17" t="n">
         <v>202.4946418937401</v>
@@ -32241,28 +32241,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L17" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N17" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P17" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T17" t="n">
         <v>10.44398644916534</v>
@@ -32311,19 +32311,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I18" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J18" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L18" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N18" t="n">
         <v>332.0050874900653</v>
@@ -32332,22 +32332,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q18" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S18" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,19 +32387,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I19" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K19" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M19" t="n">
         <v>167.7591540676927</v>
@@ -32414,7 +32414,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R19" t="n">
         <v>48.12020970937817</v>
@@ -32423,10 +32423,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055159</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651563</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937402</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779022</v>
       </c>
       <c r="L20" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712532</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359671</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822518</v>
+        <v>401.986115782252</v>
       </c>
       <c r="P20" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810518</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916535</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.19086668553586</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840367</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985301</v>
+        <v>12.32862615985302</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182842</v>
       </c>
       <c r="J21" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512823</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842455</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900654</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947078</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607458</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080805</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784627</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308318</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,19 +32624,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207018</v>
       </c>
       <c r="I22" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490378</v>
+        <v>75.6633382349038</v>
       </c>
       <c r="K22" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M22" t="n">
         <v>167.7591540676927</v>
@@ -32645,25 +32645,25 @@
         <v>163.7702163441091</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714138</v>
       </c>
       <c r="P22" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720921</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104784</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937819</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685361</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522796</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390811</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33590,10 +33590,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33827,10 +33827,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34301,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,43 +34441,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,43 +34523,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>153.4294339903486</v>
+        <v>153.4294339903484</v>
       </c>
       <c r="K11" t="n">
-        <v>351.9153978087992</v>
+        <v>351.9153978087988</v>
       </c>
       <c r="L11" t="n">
-        <v>489.386843755016</v>
+        <v>489.3868437550156</v>
       </c>
       <c r="M11" t="n">
-        <v>561.3114467837223</v>
+        <v>561.3114467837219</v>
       </c>
       <c r="N11" t="n">
-        <v>555.614257324912</v>
+        <v>555.6142573249116</v>
       </c>
       <c r="O11" t="n">
-        <v>479.0067092096892</v>
+        <v>479.0067092096888</v>
       </c>
       <c r="P11" t="n">
-        <v>370.766211868748</v>
+        <v>370.7662118687476</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.4282066381855</v>
+        <v>200.4282066381852</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>258.67074439244</v>
+        <v>294.9733114832579</v>
       </c>
       <c r="L12" t="n">
-        <v>87.81231666732771</v>
+        <v>458.6526619707866</v>
       </c>
       <c r="M12" t="n">
-        <v>587.7302875545719</v>
+        <v>180.5873751602962</v>
       </c>
       <c r="N12" t="n">
-        <v>619.1514295084301</v>
+        <v>619.1514295084296</v>
       </c>
       <c r="O12" t="n">
-        <v>499.3160532621681</v>
+        <v>499.3160532621678</v>
       </c>
       <c r="P12" t="n">
-        <v>383.57033738798</v>
+        <v>383.5703373879797</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.1765425034659</v>
+        <v>203.1765425034657</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>79.2782691530861</v>
+        <v>79.27826915308597</v>
       </c>
       <c r="L13" t="n">
-        <v>157.5361976429498</v>
+        <v>157.5361976429497</v>
       </c>
       <c r="M13" t="n">
-        <v>176.5938959415246</v>
+        <v>176.5938959415244</v>
       </c>
       <c r="N13" t="n">
-        <v>177.8843993400256</v>
+        <v>177.8843993400255</v>
       </c>
       <c r="O13" t="n">
-        <v>148.1269579375929</v>
+        <v>148.1269579375927</v>
       </c>
       <c r="P13" t="n">
-        <v>102.989937360684</v>
+        <v>102.9899373606839</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>84.21201855861082</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
@@ -35737,16 +35737,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528271</v>
+        <v>130.5086437738797</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N17" t="n">
         <v>633.6441091513602</v>
@@ -35901,10 +35901,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584804</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268384</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N18" t="n">
-        <v>365.991923481883</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269927</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
         <v>233.0438950105733</v>
@@ -36062,7 +36062,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391277</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040863</v>
+        <v>407.5425384040864</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730423</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>633.6441091513603</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748673</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N21" t="n">
-        <v>273.7620932913068</v>
+        <v>200.6633754067321</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269927</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927642</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105733</v>
+        <v>233.0438950105734</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531413</v>
       </c>
       <c r="L22" t="n">
         <v>186.6999948493115</v>
@@ -36299,7 +36299,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353458</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L24" t="n">
-        <v>354.1326152325993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341718</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
